--- a/ExcelData/notes.xlsx
+++ b/ExcelData/notes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">Hafta-1</t>
   </si>
@@ -31,6 +31,9 @@
     <t xml:space="preserve">Hafta-3</t>
   </si>
   <si>
+    <t xml:space="preserve">Hafta-4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Katsayılar</t>
   </si>
   <si>
@@ -41,6 +44,9 @@
   </si>
   <si>
     <t xml:space="preserve">Ramazan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ahmet</t>
   </si>
 </sst>
 </file>
@@ -119,8 +125,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -141,79 +151,111 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>3</v>
+      <c r="E2" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="0" t="n">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>100</v>
+      <c r="D3" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>101</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C4" s="0" t="n">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>70</v>
       </c>
+      <c r="E4" s="0" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="0" t="n">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
